--- a/Assignment/HW3/FP_heads_1.xlsx
+++ b/Assignment/HW3/FP_heads_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hws-PortilloD/Assignment/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{29B9764B-6712-4D19-9F29-72C77AE78A54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{42365AB5-5662-4711-8CF7-D9926CD17894}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{29B9764B-6712-4D19-9F29-72C77AE78A54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2EA479EA-ADAA-4416-A3F1-6A3B6F27971D}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="16080" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="16080" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP_heads" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>k_incl</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>k_overall</t>
+  </si>
+  <si>
+    <t>dH1</t>
+  </si>
+  <si>
+    <t>dH2</t>
+  </si>
+  <si>
+    <t>dH3</t>
   </si>
 </sst>
 </file>
@@ -883,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O4" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -2898,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37A9B34-9AC2-4045-AEA3-7BA8CD2B33AA}">
-  <dimension ref="A2:Z26"/>
+  <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,6 +4938,37 @@
       <c r="Z26">
         <f t="shared" si="0"/>
         <v>3.9999999080000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE(A2:A26)</f>
+        <v>4.1666666400000016</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f>A29/10/10</f>
+        <v>1.0416666600000002</v>
+      </c>
+      <c r="G28">
+        <f>A29/(10/100)</f>
+        <v>1041.6666600000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28*25</f>
+        <v>104.16666600000003</v>
+      </c>
+      <c r="B29">
+        <f>A28/25</f>
+        <v>0.16666666560000007</v>
+      </c>
+      <c r="F29">
+        <f>B29/(10/100)</f>
+        <v>1.6666666560000005</v>
       </c>
     </row>
   </sheetData>
@@ -4938,12 +4978,318 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C27FB6-1EC5-4E97-B378-EE21D2E49F99}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>FP_heads!A11-FP_heads!I11</f>
+        <v>3.3333340000000007</v>
+      </c>
+      <c r="C5">
+        <f>FP_heads!J11-FP_heads!O11</f>
+        <v>2.0833340000000007</v>
+      </c>
+      <c r="D5">
+        <f>FP_heads!P11-FP_heads!Y11</f>
+        <v>3.75</v>
+      </c>
+      <c r="F5">
+        <f>25/((B11/B25)+(C11/C25)+(D11/D25))</f>
+        <v>13.020831681315347</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>FP_heads!A12-FP_heads!I12</f>
+        <v>3.3333340000000007</v>
+      </c>
+      <c r="C6">
+        <f>FP_heads!J12-FP_heads!O12</f>
+        <v>2.0833340000000007</v>
+      </c>
+      <c r="D6">
+        <f>FP_heads!P12-FP_heads!Y12</f>
+        <v>3.75</v>
+      </c>
+      <c r="F6">
+        <f>F5/10</f>
+        <v>1.3020831681315346</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>FP_heads!A13-FP_heads!I13</f>
+        <v>3.3333340000000007</v>
+      </c>
+      <c r="C7">
+        <f>FP_heads!J13-FP_heads!O13</f>
+        <v>2.0833340000000007</v>
+      </c>
+      <c r="D7">
+        <f>FP_heads!P13-FP_heads!Y13</f>
+        <v>3.75</v>
+      </c>
+      <c r="F7">
+        <f>F5/24</f>
+        <v>0.54253465338813944</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>FP_heads!A14-FP_heads!I14</f>
+        <v>3.3333340000000007</v>
+      </c>
+      <c r="C8">
+        <f>FP_heads!J14-FP_heads!O14</f>
+        <v>2.0833340000000007</v>
+      </c>
+      <c r="D8">
+        <f>FP_heads!P14-FP_heads!Y14</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>FP_heads!A15-FP_heads!I15</f>
+        <v>3.3333340000000007</v>
+      </c>
+      <c r="C9">
+        <f>FP_heads!J15-FP_heads!O15</f>
+        <v>2.0833340000000007</v>
+      </c>
+      <c r="D9">
+        <f>FP_heads!P15-FP_heads!Y15</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>FP_heads!A16-FP_heads!I16</f>
+        <v>3.3333340000000007</v>
+      </c>
+      <c r="C10">
+        <f>FP_heads!J16-FP_heads!O16</f>
+        <v>2.0833340000000007</v>
+      </c>
+      <c r="D10">
+        <f>FP_heads!P16-FP_heads!Y16</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>AVERAGE(flux!A11:I11)</f>
+        <v>4.1666667333333338</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(flux!J11:O11)</f>
+        <v>4.1666669166666672</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(flux!P11:Y11)</f>
+        <v>3.7499997499999993</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>AVERAGE(flux!A12:I12)</f>
+        <v>4.1666667888888886</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(flux!J12:O12)</f>
+        <v>4.1666669166666672</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(flux!P12:Y12)</f>
+        <v>3.7499995999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>AVERAGE(flux!A13:I13)</f>
+        <v>4.1666667888888886</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(flux!J13:O13)</f>
+        <v>4.1666669166666672</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(flux!P13:Y13)</f>
+        <v>3.7499997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>AVERAGE(flux!A14:I14)</f>
+        <v>4.1666668444444444</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(flux!J14:O14)</f>
+        <v>4.1666668333333341</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(flux!P14:Y14)</f>
+        <v>3.7499997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>AVERAGE(flux!A15:I15)</f>
+        <v>4.1666669000000001</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(flux!J15:O15)</f>
+        <v>4.1666668333333332</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(flux!P15:Y15)</f>
+        <v>3.7499997500000006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>AVERAGE(flux!A16:I16)</f>
+        <v>4.1666668888888898</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(flux!J16:O16)</f>
+        <v>4.1666667500000001</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(flux!P16:Y16)</f>
+        <v>3.7499998000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>AVERAGE(flux!A17:I17)</f>
+        <v>4.1666668333333341</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(flux!J17:O17)</f>
+        <v>4.1666664999999989</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(flux!P17:Y17)</f>
+        <v>3.7499998500000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>B12/(B5/10)</f>
+        <v>12.49999770000046</v>
+      </c>
+      <c r="C20">
+        <f>C12/(C5/10)</f>
+        <v>19.999994800001662</v>
+      </c>
+      <c r="D20">
+        <f>D12/(D5/10)</f>
+        <v>9.9999993333333315</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" ref="B21:D25" si="0">B13/(B6/10)</f>
+        <v>12.499997866667091</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>19.999994800001662</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>9.9999989333333321</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>12.499997866667091</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>19.999994800001662</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>9.9999991999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>12.499998033333725</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>19.999994400001789</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>9.9999991999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>12.499998200000357</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>19.999994400001786</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>9.999999333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>12.499998166667034</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>19.999994000001916</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>9.9999994666666669</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4952,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFBE232-5247-4BB2-AD2F-1E04151085A3}">
   <dimension ref="A4:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,7 +5389,8 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <f>flux!F28</f>
+        <v>1.0416666600000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
